--- a/results/mp/tinybert/corona/confidence/84/desired-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/desired-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,16 +46,7 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
@@ -64,109 +55,100 @@
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -524,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -643,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8571428571428571</v>
+        <v>0.7773972602739726</v>
       </c>
       <c r="C4">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="D4">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.2015503875968992</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>412</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7083333333333334</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>0.9310344827586207</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L7">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -839,267 +821,147 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.5172413793103449</v>
-      </c>
-      <c r="C8">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="L8">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>34</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.9017857142857143</v>
+      </c>
+      <c r="L9">
+        <v>101</v>
+      </c>
+      <c r="M9">
+        <v>101</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>0.8802816901408451</v>
+      </c>
+      <c r="L10">
+        <v>125</v>
+      </c>
+      <c r="M10">
+        <v>125</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>0.875</v>
+      </c>
+      <c r="L11">
+        <v>105</v>
+      </c>
+      <c r="M11">
+        <v>105</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>15</v>
       </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8">
-        <v>0.925</v>
-      </c>
-      <c r="L8">
-        <v>37</v>
-      </c>
-      <c r="M8">
-        <v>37</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.4206008583690987</v>
-      </c>
-      <c r="C9">
-        <v>98</v>
-      </c>
-      <c r="D9">
-        <v>98</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>135</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9">
-        <v>0.92</v>
-      </c>
-      <c r="L9">
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M9">
-        <v>23</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.3375</v>
-      </c>
-      <c r="C10">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>53</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L10">
-        <v>24</v>
-      </c>
-      <c r="M10">
-        <v>24</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
+      <c r="K12">
+        <v>0.875</v>
+      </c>
+      <c r="L12">
+        <v>112</v>
+      </c>
+      <c r="M12">
+        <v>112</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>59</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L11">
-        <v>48</v>
-      </c>
-      <c r="M11">
-        <v>48</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1481481481481481</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>115</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L12">
-        <v>45</v>
-      </c>
-      <c r="M12">
-        <v>45</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.8823529411764706</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,21 +973,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1137,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.8717948717948718</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1163,21 +1025,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.82</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1189,21 +1051,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.84</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1215,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7916666666666666</v>
+        <v>0.79375</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1241,21 +1103,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.7878787878787878</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1267,21 +1129,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.7808219178082192</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1293,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.7417840375586855</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L21">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1319,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.7368421052631579</v>
+        <v>0.7310704960835509</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1345,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.7333333333333333</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1371,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.7209302325581395</v>
+        <v>0.6406779661016949</v>
       </c>
       <c r="L24">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="M24">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1397,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.7</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1423,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.6521739130434783</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1449,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.6363636363636364</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1475,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.6153846153846154</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1501,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.6071428571428571</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1527,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5972222222222222</v>
+        <v>0.4811715481171548</v>
       </c>
       <c r="L30">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="M30">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1553,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>58</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.46875</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1579,21 +1441,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4571428571428571</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1605,21 +1467,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.3947368421052632</v>
+        <v>0.4375</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1631,33 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K34">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="L34">
-        <v>14</v>
-      </c>
-      <c r="M34">
-        <v>14</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
